--- a/customer_no.xlsx
+++ b/customer_no.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\pycharmproject\project_autopacking_20230812\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA54E8A-1C06-4644-BF3D-2CC899CAE6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6790"/>
+    <workbookView xWindow="-15480" yWindow="4575" windowWidth="14670" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -904,10 +905,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1039,64 +1040,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,42 +1116,42 @@
     </xf>
   </cellXfs>
   <cellStyles count="36">
+    <cellStyle name="千分位 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="千分位[0] 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="千分位[0] 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="千分位[0] 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="千分位[0] 2 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="千分位[0] 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="千分位[0] 2 5" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="千分位[0] 2 6" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="千分位[0] 2 7" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="千分位[0] 2 8" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="千分位[0] 3" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="千分位[0] 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="千分位[0] 3 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="千分位[0] 3 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="千分位[0] 4" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="千分位[0] 5" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="千分位[0] 6" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="千分位[0] 7" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="千分位[0] 8" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="千分位[0] 9" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 10" xfId="2"/>
-    <cellStyle name="一般 11" xfId="3"/>
-    <cellStyle name="一般 12" xfId="4"/>
-    <cellStyle name="一般 13" xfId="1"/>
-    <cellStyle name="一般 2" xfId="5"/>
-    <cellStyle name="一般 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="7"/>
-    <cellStyle name="一般 3" xfId="8"/>
-    <cellStyle name="一般 3 2" xfId="9"/>
-    <cellStyle name="一般 4" xfId="10"/>
-    <cellStyle name="一般 5" xfId="11"/>
-    <cellStyle name="一般 6" xfId="12"/>
-    <cellStyle name="一般 7" xfId="13"/>
-    <cellStyle name="一般 8" xfId="14"/>
-    <cellStyle name="一般 9" xfId="15"/>
-    <cellStyle name="千分位 2" xfId="16"/>
-    <cellStyle name="千分位[0] 2" xfId="17"/>
-    <cellStyle name="千分位[0] 2 2" xfId="18"/>
-    <cellStyle name="千分位[0] 2 2 2" xfId="19"/>
-    <cellStyle name="千分位[0] 2 3" xfId="20"/>
-    <cellStyle name="千分位[0] 2 4" xfId="21"/>
-    <cellStyle name="千分位[0] 2 5" xfId="22"/>
-    <cellStyle name="千分位[0] 2 6" xfId="23"/>
-    <cellStyle name="千分位[0] 2 7" xfId="24"/>
-    <cellStyle name="千分位[0] 2 8" xfId="25"/>
-    <cellStyle name="千分位[0] 3" xfId="26"/>
-    <cellStyle name="千分位[0] 3 2" xfId="27"/>
-    <cellStyle name="千分位[0] 3 3" xfId="28"/>
-    <cellStyle name="千分位[0] 3 4" xfId="29"/>
-    <cellStyle name="千分位[0] 4" xfId="30"/>
-    <cellStyle name="千分位[0] 5" xfId="31"/>
-    <cellStyle name="千分位[0] 6" xfId="32"/>
-    <cellStyle name="千分位[0] 7" xfId="33"/>
-    <cellStyle name="千分位[0] 8" xfId="34"/>
-    <cellStyle name="千分位[0] 9" xfId="35"/>
+    <cellStyle name="一般 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 11" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 12" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="一般 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="一般 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="一般 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="一般 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="一般 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="一般 7" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="一般 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="一般 9" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1427,11 +1428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2341,12 +2342,12 @@
       <c r="B113" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B112">
-    <sortState ref="A2:B113">
+  <autoFilter ref="A1:B112" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B113">
       <sortCondition ref="A1:A113"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:B130">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B130">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
